--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value108.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value108.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.100811750011499</v>
+        <v>2.434268236160278</v>
       </c>
       <c r="B1">
-        <v>1.979663664476264</v>
+        <v>2.251269578933716</v>
       </c>
       <c r="C1">
-        <v>4.900149336293907</v>
+        <v>1.693834662437439</v>
       </c>
       <c r="D1">
-        <v>2.088469312888461</v>
+        <v>1.805990934371948</v>
       </c>
       <c r="E1">
-        <v>0.8705092367444368</v>
+        <v>1.605077266693115</v>
       </c>
     </row>
   </sheetData>
